--- a/Recon_Summary_Dec_2025_to_Jan_2026.xlsx
+++ b/Recon_Summary_Dec_2025_to_Jan_2026.xlsx
@@ -301,13 +301,13 @@
     <xf numFmtId="4" fontId="5" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>293404049.84</v>
+        <v>290898733.07</v>
       </c>
       <c r="C13" s="14" t="n"/>
       <c r="D13" s="14" t="n"/>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>70561375.59999999</v>
+        <v>69506408.41</v>
       </c>
       <c r="C14" s="14" t="n"/>
       <c r="D14" s="14" t="n"/>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B15" s="13" t="n">
-        <v>-3747005.21</v>
+        <v>-3842453.25</v>
       </c>
       <c r="C15" s="14" t="n"/>
       <c r="D15" s="14" t="n"/>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B16" s="13" t="n">
-        <v>-1051541.95</v>
+        <v>-1026046.57</v>
       </c>
       <c r="C16" s="14" t="n"/>
       <c r="D16" s="14" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>-1053671.05</v>
+        <v>-1027990.05</v>
       </c>
       <c r="C17" s="14" t="n"/>
       <c r="D17" s="14" t="n"/>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B18" s="13" t="n">
-        <v>2129.099999999977</v>
+        <v>1943.48000000004</v>
       </c>
       <c r="C18" s="14" t="n"/>
       <c r="D18" s="14" t="n"/>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B19" s="15" t="n">
-        <v>359166878.28</v>
+        <v>355536641.66</v>
       </c>
       <c r="C19" s="14" t="n"/>
       <c r="D19" s="14" t="n"/>
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B20" s="15" t="n">
-        <v>359166878.28</v>
+        <v>355536641.66</v>
       </c>
       <c r="C20" s="14" t="n"/>
       <c r="D20" s="14" t="n"/>
@@ -1098,16 +1098,16 @@
       </c>
       <c r="B3" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C3" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D3" s="13" t="n">
-        <v>374090.53</v>
+        <v>379304.38</v>
       </c>
     </row>
     <row r="4">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D4" s="30" t="n">
-        <v>374691.4</v>
+        <v>319698.71</v>
       </c>
     </row>
     <row r="5">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B5" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C5" s="28" t="inlineStr">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="D5" s="13" t="n">
-        <v>349676.77</v>
+        <v>339388.37</v>
       </c>
     </row>
     <row r="6">
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B6" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C6" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D6" s="30" t="n">
-        <v>154876.42</v>
+        <v>334683.36</v>
       </c>
     </row>
     <row r="7">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B7" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C7" s="28" t="inlineStr">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="D7" s="13" t="n">
-        <v>264206.12</v>
+        <v>274452.15</v>
       </c>
     </row>
     <row r="8">
@@ -1198,16 +1198,16 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D8" s="30" t="n">
-        <v>294247.09</v>
+        <v>289475.64</v>
       </c>
     </row>
     <row r="9">
@@ -1218,16 +1218,16 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D9" s="13" t="n">
-        <v>178854.98</v>
+        <v>369259.02</v>
       </c>
     </row>
     <row r="10">
@@ -1243,11 +1243,11 @@
       </c>
       <c r="C10" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D10" s="30" t="n">
-        <v>394192.64</v>
+        <v>347782.49</v>
       </c>
     </row>
     <row r="11">
@@ -1258,16 +1258,16 @@
       </c>
       <c r="B11" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C11" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D11" s="13" t="n">
-        <v>234245.61</v>
+        <v>284274.03</v>
       </c>
     </row>
     <row r="12">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="C12" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D12" s="30" t="n">
-        <v>357697.45</v>
+        <v>344344.86</v>
       </c>
     </row>
     <row r="13">
@@ -1298,16 +1298,16 @@
       </c>
       <c r="B13" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C13" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D13" s="13" t="n">
-        <v>479005.89</v>
+        <v>229817.34</v>
       </c>
     </row>
     <row r="14">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C14" s="29" t="inlineStr">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D14" s="30" t="n">
-        <v>489097.8</v>
+        <v>218721.01</v>
       </c>
     </row>
     <row r="15">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B15" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C15" s="28" t="inlineStr">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D15" s="13" t="n">
-        <v>433867.88</v>
+        <v>443709.48</v>
       </c>
     </row>
     <row r="16">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="C16" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D16" s="30" t="n">
-        <v>329495.75</v>
+        <v>388969.06</v>
       </c>
     </row>
     <row r="17">
@@ -1383,11 +1383,11 @@
       </c>
       <c r="C17" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D17" s="13" t="n">
-        <v>454178.31</v>
+        <v>349469.43</v>
       </c>
     </row>
     <row r="18">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="C18" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D18" s="30" t="n">
-        <v>299445.49</v>
+        <v>319701.6</v>
       </c>
     </row>
     <row r="19">
@@ -1418,16 +1418,16 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D19" s="13" t="n">
-        <v>339377.6</v>
+        <v>234418.74</v>
       </c>
     </row>
     <row r="20">
@@ -1438,16 +1438,16 @@
       </c>
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C20" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D20" s="30" t="n">
-        <v>319698.71</v>
+        <v>339713.52</v>
       </c>
     </row>
     <row r="21">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B21" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C21" s="28" t="inlineStr">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="D21" s="13" t="n">
-        <v>339388.37</v>
+        <v>304004.69</v>
       </c>
     </row>
     <row r="22">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C22" s="29" t="inlineStr">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="D22" s="30" t="n">
-        <v>334683.36</v>
+        <v>369432.37</v>
       </c>
     </row>
     <row r="23">
@@ -1498,16 +1498,16 @@
       </c>
       <c r="B23" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C23" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>274306.33</v>
+        <v>269773.39</v>
       </c>
     </row>
     <row r="24">
@@ -1523,11 +1523,11 @@
       </c>
       <c r="C24" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D24" s="30" t="n">
-        <v>309104.43</v>
+        <v>417255.97</v>
       </c>
     </row>
     <row r="25">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="D25" s="13" t="n">
-        <v>484028.72</v>
+        <v>394662.57</v>
       </c>
     </row>
     <row r="26">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="D26" s="30" t="n">
-        <v>347782.49</v>
+        <v>454114.13</v>
       </c>
     </row>
     <row r="27">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="C27" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D27" s="13" t="n">
-        <v>284274.03</v>
+        <v>404658.08</v>
       </c>
     </row>
     <row r="28">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D28" s="30" t="n">
-        <v>344344.86</v>
+        <v>324431.07</v>
       </c>
     </row>
     <row r="29">
@@ -1618,16 +1618,16 @@
       </c>
       <c r="B29" s="28" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C29" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D29" s="13" t="n">
-        <v>229817.34</v>
+        <v>289196.92</v>
       </c>
     </row>
     <row r="30">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B30" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C30" s="29" t="inlineStr">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="D30" s="30" t="n">
-        <v>218721.01</v>
+        <v>349019.49</v>
       </c>
     </row>
     <row r="31">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B31" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C31" s="28" t="inlineStr">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="D31" s="13" t="n">
-        <v>444246.47</v>
+        <v>448821.98</v>
       </c>
     </row>
     <row r="32">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B32" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C32" s="29" t="inlineStr">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D32" s="30" t="n">
-        <v>388708.53</v>
+        <v>353970.49</v>
       </c>
     </row>
     <row r="33">
@@ -1698,16 +1698,16 @@
       </c>
       <c r="B33" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C33" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D33" s="13" t="n">
-        <v>383892.01</v>
+        <v>219614.12</v>
       </c>
     </row>
     <row r="34">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B34" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C34" s="29" t="inlineStr">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="D34" s="30" t="n">
-        <v>194829.13</v>
+        <v>389090.81</v>
       </c>
     </row>
     <row r="35">
@@ -1738,16 +1738,16 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C35" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D35" s="13" t="n">
-        <v>219502.18</v>
+        <v>234766.95</v>
       </c>
     </row>
     <row r="36">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B36" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C36" s="29" t="inlineStr">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D36" s="30" t="n">
-        <v>264295.4</v>
+        <v>319478</v>
       </c>
     </row>
     <row r="37">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="D37" s="13" t="n">
-        <v>424313.52</v>
+        <v>474237.29</v>
       </c>
     </row>
     <row r="38">
@@ -1798,16 +1798,16 @@
       </c>
       <c r="B38" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C38" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D38" s="30" t="n">
-        <v>339102.98</v>
+        <v>279334.2</v>
       </c>
     </row>
     <row r="39">
@@ -1823,11 +1823,11 @@
       </c>
       <c r="C39" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D39" s="13" t="n">
-        <v>274562.78</v>
+        <v>544476.87</v>
       </c>
     </row>
     <row r="40">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B40" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C40" s="29" t="inlineStr">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D40" s="30" t="n">
-        <v>413321.17</v>
+        <v>389375.01</v>
       </c>
     </row>
     <row r="41">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="B41" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C41" s="28" t="inlineStr">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="D41" s="13" t="n">
-        <v>344373.33</v>
+        <v>473574.3</v>
       </c>
     </row>
     <row r="42">
@@ -1883,11 +1883,11 @@
       </c>
       <c r="C42" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D42" s="30" t="n">
-        <v>473643.46</v>
+        <v>296939.36</v>
       </c>
     </row>
     <row r="43">
@@ -1898,16 +1898,16 @@
       </c>
       <c r="B43" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C43" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D43" s="13" t="n">
-        <v>349103.21</v>
+        <v>349390.88</v>
       </c>
     </row>
     <row r="44">
@@ -1923,11 +1923,11 @@
       </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D44" s="30" t="n">
-        <v>224810.04</v>
+        <v>328957.06</v>
       </c>
     </row>
     <row r="45">
@@ -1938,16 +1938,16 @@
       </c>
       <c r="B45" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C45" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D45" s="13" t="n">
-        <v>324431.07</v>
+        <v>264584.48</v>
       </c>
     </row>
     <row r="46">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B46" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C46" s="29" t="inlineStr">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="D46" s="30" t="n">
-        <v>289196.92</v>
+        <v>384235.93</v>
       </c>
     </row>
     <row r="47">
@@ -1983,11 +1983,11 @@
       </c>
       <c r="C47" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D47" s="13" t="n">
-        <v>349019.49</v>
+        <v>339407.13</v>
       </c>
     </row>
     <row r="48">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B48" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C48" s="29" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D48" s="30" t="n">
-        <v>448821.98</v>
+        <v>459287.25</v>
       </c>
     </row>
     <row r="49">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B49" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C49" s="28" t="inlineStr">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="D49" s="13" t="n">
-        <v>354435.58</v>
+        <v>279576.39</v>
       </c>
     </row>
     <row r="50">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="D50" s="30" t="n">
-        <v>249544.13</v>
+        <v>394705.68</v>
       </c>
     </row>
     <row r="51">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="D51" s="13" t="n">
-        <v>372583.47</v>
+        <v>428802.31</v>
       </c>
     </row>
     <row r="52">
@@ -2078,16 +2078,16 @@
       </c>
       <c r="B52" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C52" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="D52" s="30" t="n">
-        <v>249773.12</v>
+        <v>264800.16</v>
       </c>
     </row>
     <row r="53">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B53" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C53" s="28" t="inlineStr">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="D53" s="13" t="n">
-        <v>424306.72</v>
+        <v>319451.73</v>
       </c>
     </row>
     <row r="54">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B54" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C54" s="29" t="inlineStr">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="D54" s="30" t="n">
-        <v>474237.29</v>
+        <v>314503.13</v>
       </c>
     </row>
     <row r="55">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B55" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C55" s="28" t="inlineStr">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="D55" s="13" t="n">
-        <v>279334.2</v>
+        <v>289443.98</v>
       </c>
     </row>
     <row r="56">
@@ -2158,16 +2158,16 @@
       </c>
       <c r="B56" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C56" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D56" s="30" t="n">
-        <v>544476.87</v>
+        <v>402712.79</v>
       </c>
     </row>
     <row r="57">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="D57" s="13" t="n">
-        <v>389375.01</v>
+        <v>354337.46</v>
       </c>
     </row>
     <row r="58">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B58" s="29" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C58" s="29" t="inlineStr">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="D58" s="30" t="n">
-        <v>473574.3</v>
+        <v>304544.97</v>
       </c>
     </row>
     <row r="59">
@@ -2218,16 +2218,16 @@
       </c>
       <c r="B59" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C59" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D59" s="13" t="n">
-        <v>296939.36</v>
+        <v>414117.66</v>
       </c>
     </row>
     <row r="60">
@@ -2238,16 +2238,16 @@
       </c>
       <c r="B60" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C60" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D60" s="30" t="n">
-        <v>348949.48</v>
+        <v>409290.63</v>
       </c>
     </row>
     <row r="61">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="D61" s="13" t="n">
-        <v>337722.78</v>
+        <v>194189.18</v>
       </c>
     </row>
     <row r="62">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B62" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C62" s="29" t="inlineStr">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="D62" s="30" t="n">
-        <v>384235.46</v>
+        <v>393852.29</v>
       </c>
     </row>
     <row r="63">
@@ -2298,16 +2298,16 @@
       </c>
       <c r="B63" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C63" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D63" s="13" t="n">
-        <v>399627.72</v>
+        <v>314059.92</v>
       </c>
     </row>
     <row r="64">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="C64" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D64" s="30" t="n">
-        <v>364363.53</v>
+        <v>274741.08</v>
       </c>
     </row>
     <row r="65">
@@ -2338,16 +2338,16 @@
       </c>
       <c r="B65" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C65" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D65" s="13" t="n">
-        <v>459287.25</v>
+        <v>284149.46</v>
       </c>
     </row>
     <row r="66">
@@ -2358,16 +2358,16 @@
       </c>
       <c r="B66" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C66" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D66" s="30" t="n">
-        <v>279576.39</v>
+        <v>437524.16</v>
       </c>
     </row>
     <row r="67">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B67" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C67" s="28" t="inlineStr">
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="D67" s="13" t="n">
-        <v>394705.68</v>
+        <v>409114.73</v>
       </c>
     </row>
     <row r="68">
@@ -2398,16 +2398,16 @@
       </c>
       <c r="B68" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C68" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D68" s="30" t="n">
-        <v>428802.31</v>
+        <v>254253.38</v>
       </c>
     </row>
     <row r="69">
@@ -2423,11 +2423,11 @@
       </c>
       <c r="C69" s="28" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D69" s="13" t="n">
-        <v>264800.16</v>
+        <v>382895.96</v>
       </c>
     </row>
     <row r="70">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B70" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C70" s="29" t="inlineStr">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="D70" s="30" t="n">
-        <v>319451.73</v>
+        <v>414642.69</v>
       </c>
     </row>
     <row r="71">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B71" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C71" s="28" t="inlineStr">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="D71" s="13" t="n">
-        <v>314503.13</v>
+        <v>349038.22</v>
       </c>
     </row>
     <row r="72">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D72" s="30" t="n">
-        <v>289443.98</v>
+        <v>533850.3</v>
       </c>
     </row>
     <row r="73">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B73" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C73" s="28" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="D73" s="13" t="n">
-        <v>400934.24</v>
+        <v>474557.92</v>
       </c>
     </row>
     <row r="74">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B74" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C74" s="29" t="inlineStr">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="D74" s="30" t="n">
-        <v>354337.46</v>
+        <v>214633.07</v>
       </c>
     </row>
     <row r="75">
@@ -2538,16 +2538,16 @@
       </c>
       <c r="B75" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C75" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D75" s="13" t="n">
-        <v>304544.97</v>
+        <v>269204.91</v>
       </c>
     </row>
     <row r="76">
@@ -2563,11 +2563,11 @@
       </c>
       <c r="C76" s="29" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D76" s="30" t="n">
-        <v>414117.66</v>
+        <v>309067.77</v>
       </c>
     </row>
     <row r="77">
@@ -2578,16 +2578,16 @@
       </c>
       <c r="B77" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C77" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D77" s="13" t="n">
-        <v>409290.63</v>
+        <v>393752.71</v>
       </c>
     </row>
     <row r="78">
@@ -2598,16 +2598,16 @@
       </c>
       <c r="B78" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C78" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D78" s="30" t="n">
-        <v>194189.18</v>
+        <v>363904.46</v>
       </c>
     </row>
     <row r="79">
@@ -2623,11 +2623,11 @@
       </c>
       <c r="C79" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D79" s="13" t="n">
-        <v>393852.29</v>
+        <v>449037.55</v>
       </c>
     </row>
     <row r="80">
@@ -2643,11 +2643,11 @@
       </c>
       <c r="C80" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D80" s="30" t="n">
-        <v>314059.92</v>
+        <v>394351.83</v>
       </c>
     </row>
     <row r="81">
@@ -2658,16 +2658,16 @@
       </c>
       <c r="B81" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C81" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D81" s="13" t="n">
-        <v>274741.08</v>
+        <v>434142.4</v>
       </c>
     </row>
     <row r="82">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="D82" s="30" t="n">
-        <v>284149.46</v>
+        <v>334724.32</v>
       </c>
     </row>
     <row r="83">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="B83" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C83" s="28" t="inlineStr">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="D83" s="13" t="n">
-        <v>437205.67</v>
+        <v>342691.27</v>
       </c>
     </row>
     <row r="84">
@@ -2723,11 +2723,11 @@
       </c>
       <c r="C84" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D84" s="30" t="n">
-        <v>409114.73</v>
+        <v>439201.48</v>
       </c>
     </row>
     <row r="85">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="B85" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C85" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D85" s="13" t="n">
-        <v>254253.38</v>
+        <v>314159.19</v>
       </c>
     </row>
     <row r="86">
@@ -2758,16 +2758,16 @@
       </c>
       <c r="B86" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C86" s="29" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D86" s="30" t="n">
-        <v>382895.96</v>
+        <v>289447.18</v>
       </c>
     </row>
     <row r="87">
@@ -2783,11 +2783,11 @@
       </c>
       <c r="C87" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D87" s="13" t="n">
-        <v>414642.69</v>
+        <v>354366.33</v>
       </c>
     </row>
     <row r="88">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D88" s="30" t="n">
-        <v>349038.22</v>
+        <v>274770.1</v>
       </c>
     </row>
     <row r="89">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B89" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C89" s="28" t="inlineStr">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="D89" s="13" t="n">
-        <v>533850.3</v>
+        <v>318986.9</v>
       </c>
     </row>
     <row r="90">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="D90" s="30" t="n">
-        <v>474557.92</v>
+        <v>394345.42</v>
       </c>
     </row>
     <row r="91">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B91" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C91" s="28" t="inlineStr">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="D91" s="13" t="n">
-        <v>214633.07</v>
+        <v>439668.19</v>
       </c>
     </row>
     <row r="92">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B92" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C92" s="29" t="inlineStr">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D92" s="30" t="n">
-        <v>269204.91</v>
+        <v>224607.66</v>
       </c>
     </row>
     <row r="93">
@@ -2903,11 +2903,11 @@
       </c>
       <c r="C93" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D93" s="13" t="n">
-        <v>309067.77</v>
+        <v>329381.74</v>
       </c>
     </row>
     <row r="94">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B94" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C94" s="29" t="inlineStr">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="D94" s="30" t="n">
-        <v>393752.71</v>
+        <v>424285.96</v>
       </c>
     </row>
     <row r="95">
@@ -2938,16 +2938,16 @@
       </c>
       <c r="B95" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C95" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D95" s="13" t="n">
-        <v>363904.46</v>
+        <v>289529.73</v>
       </c>
     </row>
     <row r="96">
@@ -2963,11 +2963,11 @@
       </c>
       <c r="C96" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D96" s="30" t="n">
-        <v>449037.55</v>
+        <v>184617.31</v>
       </c>
     </row>
     <row r="97">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="D97" s="13" t="n">
-        <v>394351.83</v>
+        <v>339696.2</v>
       </c>
     </row>
     <row r="98">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="D98" s="30" t="n">
-        <v>434142.4</v>
+        <v>324696.35</v>
       </c>
     </row>
     <row r="99">
@@ -3018,16 +3018,16 @@
       </c>
       <c r="B99" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C99" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D99" s="13" t="n">
-        <v>334724.32</v>
+        <v>454562.42</v>
       </c>
     </row>
     <row r="100">
@@ -3038,16 +3038,16 @@
       </c>
       <c r="B100" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C100" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D100" s="30" t="n">
-        <v>342691.27</v>
+        <v>197993.93</v>
       </c>
     </row>
     <row r="101">
@@ -3063,11 +3063,11 @@
       </c>
       <c r="C101" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D101" s="13" t="n">
-        <v>439201.48</v>
+        <v>319700.45</v>
       </c>
     </row>
     <row r="102">
@@ -3083,11 +3083,11 @@
       </c>
       <c r="C102" s="29" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D102" s="30" t="n">
-        <v>314159.19</v>
+        <v>239814.63</v>
       </c>
     </row>
     <row r="103">
@@ -3098,16 +3098,16 @@
       </c>
       <c r="B103" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C103" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D103" s="13" t="n">
-        <v>289712.96</v>
+        <v>309694.33</v>
       </c>
     </row>
     <row r="104">
@@ -3118,16 +3118,16 @@
       </c>
       <c r="B104" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C104" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D104" s="30" t="n">
-        <v>384335.18</v>
+        <v>389672.03</v>
       </c>
     </row>
     <row r="105">
@@ -3138,16 +3138,16 @@
       </c>
       <c r="B105" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C105" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D105" s="13" t="n">
-        <v>359128.63</v>
+        <v>289264.18</v>
       </c>
     </row>
     <row r="106">
@@ -3158,16 +3158,16 @@
       </c>
       <c r="B106" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C106" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D106" s="30" t="n">
-        <v>389672.03</v>
+        <v>334488.11</v>
       </c>
     </row>
     <row r="107">
@@ -3178,16 +3178,16 @@
       </c>
       <c r="B107" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C107" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D107" s="13" t="n">
-        <v>264593.46</v>
+        <v>363945.54</v>
       </c>
     </row>
     <row r="108">
@@ -3198,16 +3198,16 @@
       </c>
       <c r="B108" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C108" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D108" s="30" t="n">
-        <v>352753.48</v>
+        <v>449571.37</v>
       </c>
     </row>
     <row r="109">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="B109" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C109" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D109" s="13" t="n">
-        <v>379393.44</v>
+        <v>384118.36</v>
       </c>
     </row>
     <row r="110">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B110" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C110" s="29" t="inlineStr">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D110" s="30" t="n">
-        <v>379067.45</v>
+        <v>358943.93</v>
       </c>
     </row>
     <row r="111">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="B111" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C111" s="28" t="inlineStr">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="D111" s="13" t="n">
-        <v>422254.18</v>
+        <v>394674.94</v>
       </c>
     </row>
     <row r="112">
@@ -3283,11 +3283,11 @@
       </c>
       <c r="C112" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D112" s="30" t="n">
-        <v>334678.44</v>
+        <v>393673.88</v>
       </c>
     </row>
     <row r="113">
@@ -3298,16 +3298,16 @@
       </c>
       <c r="B113" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C113" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D113" s="13" t="n">
-        <v>279261.28</v>
+        <v>328178.87</v>
       </c>
     </row>
     <row r="114">
@@ -3318,16 +3318,16 @@
       </c>
       <c r="B114" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C114" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D114" s="30" t="n">
-        <v>564495.16</v>
+        <v>304439.65</v>
       </c>
     </row>
     <row r="115">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="D115" s="13" t="n">
-        <v>324696.35</v>
+        <v>274523.27</v>
       </c>
     </row>
     <row r="116">
@@ -3358,16 +3358,16 @@
       </c>
       <c r="B116" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C116" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D116" s="30" t="n">
-        <v>454562.42</v>
+        <v>449257.21</v>
       </c>
     </row>
     <row r="117">
@@ -3378,16 +3378,16 @@
       </c>
       <c r="B117" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C117" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D117" s="13" t="n">
-        <v>199407.66</v>
+        <v>481857.43</v>
       </c>
     </row>
     <row r="118">
@@ -3403,11 +3403,11 @@
       </c>
       <c r="C118" s="29" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D118" s="30" t="n">
-        <v>309740.33</v>
+        <v>299235.82</v>
       </c>
     </row>
     <row r="119">
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="D119" s="13" t="n">
-        <v>429637.68</v>
+        <v>486994.55</v>
       </c>
     </row>
     <row r="120">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D120" s="30" t="n">
-        <v>399656.95</v>
+        <v>299765.97</v>
       </c>
     </row>
     <row r="121">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="D121" s="13" t="n">
-        <v>324756.38</v>
+        <v>389619.12</v>
       </c>
     </row>
     <row r="122">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="B122" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C122" s="29" t="inlineStr">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="D122" s="30" t="n">
-        <v>358933.79</v>
+        <v>394636.62</v>
       </c>
     </row>
     <row r="123">
@@ -3498,16 +3498,16 @@
       </c>
       <c r="B123" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C123" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D123" s="13" t="n">
-        <v>334488.11</v>
+        <v>373825.1</v>
       </c>
     </row>
     <row r="124">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B124" s="29" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C124" s="29" t="inlineStr">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D124" s="30" t="n">
-        <v>363945.54</v>
+        <v>314758.63</v>
       </c>
     </row>
     <row r="125">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="B125" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C125" s="28" t="inlineStr">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="D125" s="13" t="n">
-        <v>449263.03</v>
+        <v>234797.67</v>
       </c>
     </row>
     <row r="126">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="D126" s="30" t="n">
-        <v>227704.77</v>
+        <v>419341.43</v>
       </c>
     </row>
     <row r="127">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="D127" s="13" t="n">
-        <v>289482.36</v>
+        <v>384402.28</v>
       </c>
     </row>
     <row r="128">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="B128" s="29" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C128" s="29" t="inlineStr">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D128" s="30" t="n">
-        <v>284104.74</v>
+        <v>359720.84</v>
       </c>
     </row>
     <row r="129">
@@ -3618,16 +3618,16 @@
       </c>
       <c r="B129" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C129" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D129" s="13" t="n">
-        <v>349702.18</v>
+        <v>304708.37</v>
       </c>
     </row>
     <row r="130">
@@ -3643,11 +3643,11 @@
       </c>
       <c r="C130" s="29" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D130" s="30" t="n">
-        <v>338979.5</v>
+        <v>369361.08</v>
       </c>
     </row>
     <row r="131">
@@ -3658,16 +3658,16 @@
       </c>
       <c r="B131" s="28" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C131" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D131" s="13" t="n">
-        <v>324004.6</v>
+        <v>389632.09</v>
       </c>
     </row>
     <row r="132">
@@ -3678,16 +3678,16 @@
       </c>
       <c r="B132" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C132" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D132" s="30" t="n">
-        <v>433961.54</v>
+        <v>304531.16</v>
       </c>
     </row>
     <row r="133">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B133" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C133" s="28" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="D133" s="13" t="n">
-        <v>334729.17</v>
+        <v>399225.68</v>
       </c>
     </row>
     <row r="134">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B134" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C134" s="29" t="inlineStr">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="D134" s="30" t="n">
-        <v>359301.77</v>
+        <v>458650.58</v>
       </c>
     </row>
     <row r="135">
@@ -3738,16 +3738,16 @@
       </c>
       <c r="B135" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C135" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D135" s="13" t="n">
-        <v>624389.62</v>
+        <v>249759.11</v>
       </c>
     </row>
     <row r="136">
@@ -3758,16 +3758,16 @@
       </c>
       <c r="B136" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C136" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D136" s="30" t="n">
-        <v>264783.21</v>
+        <v>414661.84</v>
       </c>
     </row>
     <row r="137">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="D137" s="13" t="n">
-        <v>284739.34</v>
+        <v>299205.43</v>
       </c>
     </row>
     <row r="138">
@@ -3798,16 +3798,16 @@
       </c>
       <c r="B138" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C138" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D138" s="30" t="n">
-        <v>389699.97</v>
+        <v>329674.61</v>
       </c>
     </row>
     <row r="139">
@@ -3818,16 +3818,16 @@
       </c>
       <c r="B139" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C139" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="D139" s="13" t="n">
-        <v>259760.82</v>
+        <v>324720.73</v>
       </c>
     </row>
     <row r="140">
@@ -3838,16 +3838,16 @@
       </c>
       <c r="B140" s="29" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C140" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D140" s="30" t="n">
-        <v>373825.1</v>
+        <v>334081.22</v>
       </c>
     </row>
     <row r="141">
@@ -3858,16 +3858,16 @@
       </c>
       <c r="B141" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C141" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D141" s="13" t="n">
-        <v>314758.63</v>
+        <v>392534.74</v>
       </c>
     </row>
     <row r="142">
@@ -3878,16 +3878,16 @@
       </c>
       <c r="B142" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C142" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D142" s="30" t="n">
-        <v>234797.67</v>
+        <v>334211.26</v>
       </c>
     </row>
     <row r="143">
@@ -3898,16 +3898,16 @@
       </c>
       <c r="B143" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C143" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D143" s="13" t="n">
-        <v>419341.43</v>
+        <v>344327.01</v>
       </c>
     </row>
     <row r="144">
@@ -3923,11 +3923,11 @@
       </c>
       <c r="C144" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D144" s="30" t="n">
-        <v>384402.28</v>
+        <v>324509.29</v>
       </c>
     </row>
     <row r="145">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B145" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C145" s="28" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="D145" s="13" t="n">
-        <v>359720.84</v>
+        <v>419043.93</v>
       </c>
     </row>
     <row r="146">
@@ -3958,16 +3958,16 @@
       </c>
       <c r="B146" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C146" s="29" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D146" s="30" t="n">
-        <v>304708.37</v>
+        <v>359644.35</v>
       </c>
     </row>
     <row r="147">
@@ -3983,11 +3983,11 @@
       </c>
       <c r="C147" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D147" s="13" t="n">
-        <v>369361.08</v>
+        <v>438949.6</v>
       </c>
     </row>
     <row r="148">
@@ -4003,11 +4003,11 @@
       </c>
       <c r="C148" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D148" s="30" t="n">
-        <v>389632.09</v>
+        <v>344368.49</v>
       </c>
     </row>
     <row r="149">
@@ -4018,16 +4018,16 @@
       </c>
       <c r="B149" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C149" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D149" s="13" t="n">
-        <v>304531.16</v>
+        <v>379701.2</v>
       </c>
     </row>
     <row r="150">
@@ -4038,16 +4038,16 @@
       </c>
       <c r="B150" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C150" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D150" s="30" t="n">
-        <v>399219.72</v>
+        <v>454187.83</v>
       </c>
     </row>
     <row r="151">
@@ -4058,16 +4058,16 @@
       </c>
       <c r="B151" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C151" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="D151" s="13" t="n">
-        <v>392485.51</v>
+        <v>384291.13</v>
       </c>
     </row>
     <row r="152">
@@ -4078,16 +4078,16 @@
       </c>
       <c r="B152" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C152" s="29" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D152" s="30" t="n">
-        <v>494228.44</v>
+        <v>333626.85</v>
       </c>
     </row>
     <row r="153">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B153" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C153" s="28" t="inlineStr">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="D153" s="13" t="n">
-        <v>384638.9</v>
+        <v>293176.97</v>
       </c>
     </row>
     <row r="154">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B154" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C154" s="29" t="inlineStr">
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="D154" s="30" t="n">
-        <v>293182.7</v>
+        <v>319113.84</v>
       </c>
     </row>
     <row r="155">
@@ -4138,16 +4138,16 @@
       </c>
       <c r="B155" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C155" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D155" s="13" t="n">
-        <v>383492.27</v>
+        <v>364653.01</v>
       </c>
     </row>
     <row r="156">
@@ -4163,11 +4163,11 @@
       </c>
       <c r="C156" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D156" s="30" t="n">
-        <v>498563.81</v>
+        <v>159324.34</v>
       </c>
     </row>
     <row r="157">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="C157" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D157" s="13" t="n">
-        <v>414378.38</v>
+        <v>404679</v>
       </c>
     </row>
     <row r="158">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B158" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C158" s="29" t="inlineStr">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="D158" s="30" t="n">
-        <v>342895.75</v>
+        <v>264354.77</v>
       </c>
     </row>
     <row r="159">
@@ -4218,16 +4218,16 @@
       </c>
       <c r="B159" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C159" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D159" s="13" t="n">
-        <v>398973.1</v>
+        <v>379128.08</v>
       </c>
     </row>
     <row r="160">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B160" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C160" s="29" t="inlineStr">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D160" s="30" t="n">
-        <v>344407.74</v>
+        <v>398907.18</v>
       </c>
     </row>
     <row r="161">
@@ -4258,16 +4258,16 @@
       </c>
       <c r="B161" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C161" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D161" s="13" t="n">
-        <v>539467.55</v>
+        <v>319259.89</v>
       </c>
     </row>
     <row r="162">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B162" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C162" s="29" t="inlineStr">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="D162" s="30" t="n">
-        <v>351718.16</v>
+        <v>334131.53</v>
       </c>
     </row>
     <row r="163">
@@ -4298,16 +4298,16 @@
       </c>
       <c r="B163" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C163" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D163" s="13" t="n">
-        <v>524202.56</v>
+        <v>428795.37</v>
       </c>
     </row>
     <row r="164">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B164" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C164" s="29" t="inlineStr">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D164" s="30" t="n">
-        <v>308944.9</v>
+        <v>468819.08</v>
       </c>
     </row>
     <row r="165">
@@ -4338,16 +4338,16 @@
       </c>
       <c r="B165" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C165" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D165" s="13" t="n">
-        <v>444138.57</v>
+        <v>319473.87</v>
       </c>
     </row>
     <row r="166">
@@ -4358,16 +4358,16 @@
       </c>
       <c r="B166" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C166" s="29" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D166" s="30" t="n">
-        <v>463474.68</v>
+        <v>433985.91</v>
       </c>
     </row>
     <row r="167">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="B167" s="28" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C167" s="28" t="inlineStr">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="D167" s="13" t="n">
-        <v>224358.66</v>
+        <v>329037.48</v>
       </c>
     </row>
     <row r="168">
@@ -4398,16 +4398,16 @@
       </c>
       <c r="B168" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C168" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D168" s="30" t="n">
-        <v>434234.04</v>
+        <v>219820.73</v>
       </c>
     </row>
     <row r="169">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="C169" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D169" s="13" t="n">
-        <v>364657</v>
+        <v>269427.31</v>
       </c>
     </row>
     <row r="170">
@@ -4438,16 +4438,16 @@
       </c>
       <c r="B170" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C170" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D170" s="30" t="n">
-        <v>363831.33</v>
+        <v>442124.96</v>
       </c>
     </row>
     <row r="171">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="B171" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C171" s="28" t="inlineStr">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="D171" s="13" t="n">
-        <v>331908.42</v>
+        <v>219668.49</v>
       </c>
     </row>
     <row r="172">
@@ -4478,16 +4478,16 @@
       </c>
       <c r="B172" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C172" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D172" s="30" t="n">
-        <v>463881.12</v>
+        <v>214411.47</v>
       </c>
     </row>
     <row r="173">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B173" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C173" s="28" t="inlineStr">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="D173" s="13" t="n">
-        <v>344672.02</v>
+        <v>309240.73</v>
       </c>
     </row>
     <row r="174">
@@ -4523,11 +4523,11 @@
       </c>
       <c r="C174" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D174" s="30" t="n">
-        <v>159324.34</v>
+        <v>379402.97</v>
       </c>
     </row>
     <row r="175">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="C175" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D175" s="13" t="n">
-        <v>404679</v>
+        <v>374637.97</v>
       </c>
     </row>
     <row r="176">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="B176" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C176" s="29" t="inlineStr">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D176" s="30" t="n">
-        <v>264354.77</v>
+        <v>399033.72</v>
       </c>
     </row>
     <row r="177">
@@ -4578,16 +4578,16 @@
       </c>
       <c r="B177" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C177" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D177" s="13" t="n">
-        <v>379128.08</v>
+        <v>466841.32</v>
       </c>
     </row>
     <row r="178">
@@ -4603,11 +4603,11 @@
       </c>
       <c r="C178" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D178" s="30" t="n">
-        <v>398907.18</v>
+        <v>403854.43</v>
       </c>
     </row>
     <row r="179">
@@ -4618,16 +4618,16 @@
       </c>
       <c r="B179" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C179" s="28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D179" s="13" t="n">
-        <v>317856.74</v>
+        <v>309236.24</v>
       </c>
     </row>
     <row r="180">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B180" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C180" s="29" t="inlineStr">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D180" s="30" t="n">
-        <v>333662.57</v>
+        <v>419038.21</v>
       </c>
     </row>
     <row r="181">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B181" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C181" s="28" t="inlineStr">
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="D181" s="13" t="n">
-        <v>329490.71</v>
+        <v>462153.67</v>
       </c>
     </row>
     <row r="182">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B182" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C182" s="29" t="inlineStr">
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="D182" s="30" t="n">
-        <v>234409.54</v>
+        <v>278969.27</v>
       </c>
     </row>
     <row r="183">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="D183" s="13" t="n">
-        <v>319473.87</v>
+        <v>234109.27</v>
       </c>
     </row>
     <row r="184">
@@ -4718,16 +4718,16 @@
       </c>
       <c r="B184" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C184" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D184" s="30" t="n">
-        <v>433985.91</v>
+        <v>307124.22</v>
       </c>
     </row>
     <row r="185">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B185" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C185" s="28" t="inlineStr">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="D185" s="13" t="n">
-        <v>329708</v>
+        <v>329018.91</v>
       </c>
     </row>
     <row r="186">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B186" s="29" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C186" s="29" t="inlineStr">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="D186" s="30" t="n">
-        <v>303807</v>
+        <v>392304.35</v>
       </c>
     </row>
     <row r="187">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="B187" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>Portfolio</t>
         </is>
       </c>
       <c r="C187" s="28" t="inlineStr">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="D187" s="13" t="n">
-        <v>239761.54</v>
+        <v>254496.06</v>
       </c>
     </row>
     <row r="188">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B188" s="29" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C188" s="29" t="inlineStr">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D188" s="30" t="n">
-        <v>473806.52</v>
+        <v>214477.54</v>
       </c>
     </row>
     <row r="189">
@@ -4818,16 +4818,16 @@
       </c>
       <c r="B189" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C189" s="28" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D189" s="13" t="n">
-        <v>639035.6</v>
+        <v>438726.43</v>
       </c>
     </row>
     <row r="190">
@@ -4838,16 +4838,16 @@
       </c>
       <c r="B190" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C190" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D190" s="30" t="n">
-        <v>214411.47</v>
+        <v>259224.06</v>
       </c>
     </row>
     <row r="191">
@@ -4858,16 +4858,16 @@
       </c>
       <c r="B191" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C191" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="D191" s="13" t="n">
-        <v>309701.87</v>
+        <v>387649.54</v>
       </c>
     </row>
     <row r="192">
@@ -4878,16 +4878,16 @@
       </c>
       <c r="B192" s="29" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C192" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D192" s="30" t="n">
-        <v>344324.75</v>
+        <v>433967.68</v>
       </c>
     </row>
     <row r="193">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="C193" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="D193" s="13" t="n">
-        <v>379686.67</v>
+        <v>484196.28</v>
       </c>
     </row>
     <row r="194">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B194" s="29" t="inlineStr">
         <is>
-          <t>Portfolio</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C194" s="29" t="inlineStr">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="D194" s="30" t="n">
-        <v>354116.74</v>
+        <v>328990.17</v>
       </c>
     </row>
     <row r="195">
@@ -4938,16 +4938,16 @@
       </c>
       <c r="B195" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C195" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D195" s="13" t="n">
-        <v>356292.88</v>
+        <v>324753.93</v>
       </c>
     </row>
     <row r="196">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D196" s="30" t="n">
-        <v>274174.59</v>
+        <v>209388.66</v>
       </c>
     </row>
     <row r="197">
@@ -4978,16 +4978,16 @@
       </c>
       <c r="B197" s="28" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C197" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D197" s="13" t="n">
-        <v>329146.16</v>
+        <v>344158.33</v>
       </c>
     </row>
     <row r="198">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="D198" s="30" t="n">
-        <v>268349.26</v>
+        <v>394097.26</v>
       </c>
     </row>
     <row r="199">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B199" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C199" s="28" t="inlineStr">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="D199" s="13" t="n">
-        <v>284498.16</v>
+        <v>374278.24</v>
       </c>
     </row>
     <row r="200">
@@ -5043,11 +5043,11 @@
       </c>
       <c r="C200" s="29" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D200" s="30" t="n">
-        <v>278969.27</v>
+        <v>204796.31</v>
       </c>
     </row>
     <row r="201">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="B201" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C201" s="28" t="inlineStr">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="D201" s="13" t="n">
-        <v>234109.27</v>
+        <v>334746.87</v>
       </c>
     </row>
     <row r="202">
@@ -5083,11 +5083,11 @@
       </c>
       <c r="C202" s="29" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D202" s="30" t="n">
-        <v>307124.22</v>
+        <v>234422.16</v>
       </c>
     </row>
     <row r="203">
@@ -5170,35 +5170,35 @@
     <row r="3">
       <c r="A3" s="28" t="inlineStr">
         <is>
-          <t>MSR100177</t>
+          <t>MSR100034</t>
         </is>
       </c>
       <c r="B3" s="28" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C3" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D3" s="13" t="n">
-        <v>354112.98</v>
+        <v>424666.91</v>
       </c>
       <c r="E3" s="35" t="n">
-        <v>0.0444</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="inlineStr">
         <is>
-          <t>MSR100362</t>
+          <t>MSR100100</t>
         </is>
       </c>
       <c r="B4" s="36" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C4" s="36" t="inlineStr">
@@ -5207,16 +5207,16 @@
         </is>
       </c>
       <c r="D4" s="37" t="n">
-        <v>280243.73</v>
+        <v>291530.86</v>
       </c>
       <c r="E4" s="38" t="n">
-        <v>0.0422</v>
+        <v>0.0313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="28" t="inlineStr">
         <is>
-          <t>MSR100426</t>
+          <t>MSR100241</t>
         </is>
       </c>
       <c r="B5" s="28" t="inlineStr">
@@ -5226,43 +5226,43 @@
       </c>
       <c r="C5" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D5" s="13" t="n">
-        <v>159074.22</v>
+        <v>265375.94</v>
       </c>
       <c r="E5" s="35" t="n">
-        <v>0.043</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36" t="inlineStr">
         <is>
-          <t>MSR100431</t>
+          <t>MSR100250</t>
         </is>
       </c>
       <c r="B6" s="36" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C6" s="36" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D6" s="37" t="n">
-        <v>343336.38</v>
+        <v>106147.08</v>
       </c>
       <c r="E6" s="38" t="n">
-        <v>0.0621</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="28" t="inlineStr">
         <is>
-          <t>MSR100460</t>
+          <t>MSR100252</t>
         </is>
       </c>
       <c r="B7" s="28" t="inlineStr">
@@ -5272,66 +5272,66 @@
       </c>
       <c r="C7" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D7" s="13" t="n">
-        <v>206402.62</v>
+        <v>365421</v>
       </c>
       <c r="E7" s="35" t="n">
-        <v>0.0403</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="inlineStr">
         <is>
-          <t>MSR100589</t>
+          <t>MSR100253</t>
         </is>
       </c>
       <c r="B8" s="36" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C8" s="36" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D8" s="37" t="n">
-        <v>409434.6</v>
+        <v>304042.36</v>
       </c>
       <c r="E8" s="38" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="28" t="inlineStr">
         <is>
-          <t>MSR100602</t>
+          <t>MSR100264</t>
         </is>
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="D9" s="13" t="n">
-        <v>269275.76</v>
+        <v>502226.21</v>
       </c>
       <c r="E9" s="35" t="n">
-        <v>0.0354</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="36" t="inlineStr">
         <is>
-          <t>MSR100652</t>
+          <t>MSR100625</t>
         </is>
       </c>
       <c r="B10" s="36" t="inlineStr">
@@ -5341,20 +5341,20 @@
       </c>
       <c r="C10" s="36" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D10" s="37" t="n">
-        <v>353496.62</v>
+        <v>450060.9</v>
       </c>
       <c r="E10" s="38" t="n">
-        <v>0.0281</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>MSR100682</t>
+          <t>MSR100709</t>
         </is>
       </c>
       <c r="B11" s="28" t="inlineStr">
@@ -5364,25 +5364,25 @@
       </c>
       <c r="C11" s="28" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D11" s="13" t="n">
-        <v>303256.38</v>
+        <v>311889.86</v>
       </c>
       <c r="E11" s="35" t="n">
-        <v>0.0293</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="36" t="inlineStr">
         <is>
-          <t>MSR100772</t>
+          <t>MSR100911</t>
         </is>
       </c>
       <c r="B12" s="36" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C12" s="36" t="inlineStr">
@@ -5391,56 +5391,56 @@
         </is>
       </c>
       <c r="D12" s="37" t="n">
-        <v>284180.51</v>
+        <v>212771.66</v>
       </c>
       <c r="E12" s="38" t="n">
-        <v>0.033</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="28" t="inlineStr">
         <is>
-          <t>MSR100783</t>
+          <t>MSR100913</t>
         </is>
       </c>
       <c r="B13" s="28" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C13" s="28" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D13" s="13" t="n">
-        <v>341272.57</v>
+        <v>374742.05</v>
       </c>
       <c r="E13" s="35" t="n">
-        <v>0.0368</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="36" t="inlineStr">
         <is>
-          <t>MSR100963</t>
+          <t>MSR100952</t>
         </is>
       </c>
       <c r="B14" s="36" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C14" s="36" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D14" s="37" t="n">
-        <v>442918.84</v>
+        <v>233578.42</v>
       </c>
       <c r="E14" s="38" t="n">
-        <v>0.0659</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="15">
@@ -5518,47 +5518,47 @@
     <row r="3">
       <c r="A3" s="28" t="inlineStr">
         <is>
-          <t>MSR100578</t>
+          <t>MSR100542</t>
         </is>
       </c>
       <c r="B3" s="28" t="inlineStr">
         <is>
-          <t>60 DPD</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="C3" s="42" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>30 DPD</t>
         </is>
       </c>
       <c r="D3" s="13" t="n">
-        <v>247562.47</v>
+        <v>251963.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="inlineStr">
         <is>
-          <t>MSR100698</t>
+          <t>MSR100443</t>
         </is>
       </c>
       <c r="B4" s="36" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>60 DPD</t>
         </is>
       </c>
       <c r="C4" s="43" t="inlineStr">
         <is>
-          <t>30 DPD</t>
+          <t>90+ DPD</t>
         </is>
       </c>
       <c r="D4" s="37" t="n">
-        <v>301593.51</v>
+        <v>326446.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="28" t="inlineStr">
         <is>
-          <t>MSR100268</t>
+          <t>MSR100289</t>
         </is>
       </c>
       <c r="B5" s="28" t="inlineStr">
@@ -5566,19 +5566,19 @@
           <t>30 DPD</t>
         </is>
       </c>
-      <c r="C5" s="42" t="inlineStr">
+      <c r="C5" s="44" t="inlineStr">
         <is>
           <t>Current</t>
         </is>
       </c>
       <c r="D5" s="13" t="n">
-        <v>274758.72</v>
+        <v>382060.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36" t="inlineStr">
         <is>
-          <t>MSR100214</t>
+          <t>MSR100195</t>
         </is>
       </c>
       <c r="B6" s="36" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="D6" s="37" t="n">
-        <v>397870.39</v>
+        <v>217167.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="28" t="inlineStr">
         <is>
-          <t>MSR100129</t>
+          <t>MSR100869</t>
         </is>
       </c>
       <c r="B7" s="28" t="inlineStr">
@@ -5606,53 +5606,53 @@
           <t>30 DPD</t>
         </is>
       </c>
-      <c r="C7" s="44" t="inlineStr">
+      <c r="C7" s="42" t="inlineStr">
         <is>
           <t>60 DPD</t>
         </is>
       </c>
       <c r="D7" s="13" t="n">
-        <v>318927.9</v>
+        <v>308607.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="inlineStr">
         <is>
-          <t>MSR100530</t>
+          <t>MSR100499</t>
         </is>
       </c>
       <c r="B8" s="36" t="inlineStr">
         <is>
-          <t>60 DPD</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="C8" s="43" t="inlineStr">
         <is>
-          <t>90+ DPD</t>
+          <t>30 DPD</t>
         </is>
       </c>
       <c r="D8" s="37" t="n">
-        <v>315438.58</v>
+        <v>383436.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="28" t="inlineStr">
         <is>
-          <t>MSR100536</t>
+          <t>MSR100726</t>
         </is>
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
+          <t>60 DPD</t>
+        </is>
+      </c>
+      <c r="C9" s="44" t="inlineStr">
+        <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="C9" s="44" t="inlineStr">
-        <is>
-          <t>30 DPD</t>
-        </is>
-      </c>
       <c r="D9" s="13" t="n">
-        <v>243173.46</v>
+        <v>322836.07</v>
       </c>
     </row>
   </sheetData>

--- a/Recon_Summary_Dec_2025_to_Jan_2026.xlsx
+++ b/Recon_Summary_Dec_2025_to_Jan_2026.xlsx
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -301,13 +301,16 @@
     <xf numFmtId="4" fontId="5" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5518,127 +5521,127 @@
     <row r="3">
       <c r="A3" s="28" t="inlineStr">
         <is>
-          <t>MSR100542</t>
+          <t>MSR100726</t>
         </is>
       </c>
       <c r="B3" s="28" t="inlineStr">
         <is>
+          <t>60 DPD</t>
+        </is>
+      </c>
+      <c r="C3" s="42" t="inlineStr">
+        <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="C3" s="42" t="inlineStr">
-        <is>
-          <t>30 DPD</t>
-        </is>
-      </c>
       <c r="D3" s="13" t="n">
-        <v>251963.15</v>
+        <v>322836.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="inlineStr">
         <is>
-          <t>MSR100443</t>
+          <t>MSR100542</t>
         </is>
       </c>
       <c r="B4" s="36" t="inlineStr">
         <is>
-          <t>60 DPD</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="C4" s="43" t="inlineStr">
         <is>
-          <t>90+ DPD</t>
+          <t>30 DPD</t>
         </is>
       </c>
       <c r="D4" s="37" t="n">
-        <v>326446.17</v>
+        <v>251963.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="28" t="inlineStr">
         <is>
-          <t>MSR100289</t>
+          <t>MSR100195</t>
         </is>
       </c>
       <c r="B5" s="28" t="inlineStr">
         <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="C5" s="44" t="inlineStr">
+        <is>
           <t>30 DPD</t>
         </is>
       </c>
-      <c r="C5" s="44" t="inlineStr">
-        <is>
-          <t>Current</t>
-        </is>
-      </c>
       <c r="D5" s="13" t="n">
-        <v>382060.03</v>
+        <v>217167.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36" t="inlineStr">
         <is>
-          <t>MSR100195</t>
+          <t>MSR100869</t>
         </is>
       </c>
       <c r="B6" s="36" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>30 DPD</t>
         </is>
       </c>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>30 DPD</t>
+          <t>60 DPD</t>
         </is>
       </c>
       <c r="D6" s="37" t="n">
-        <v>217167.13</v>
+        <v>308607.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="28" t="inlineStr">
         <is>
-          <t>MSR100869</t>
+          <t>MSR100499</t>
         </is>
       </c>
       <c r="B7" s="28" t="inlineStr">
         <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="C7" s="44" t="inlineStr">
+        <is>
           <t>30 DPD</t>
         </is>
       </c>
-      <c r="C7" s="42" t="inlineStr">
-        <is>
-          <t>60 DPD</t>
-        </is>
-      </c>
       <c r="D7" s="13" t="n">
-        <v>308607.16</v>
+        <v>383436.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="inlineStr">
         <is>
-          <t>MSR100499</t>
+          <t>MSR100289</t>
         </is>
       </c>
       <c r="B8" s="36" t="inlineStr">
         <is>
+          <t>30 DPD</t>
+        </is>
+      </c>
+      <c r="C8" s="45" t="inlineStr">
+        <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="C8" s="43" t="inlineStr">
-        <is>
-          <t>30 DPD</t>
-        </is>
-      </c>
       <c r="D8" s="37" t="n">
-        <v>383436.85</v>
+        <v>382060.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="28" t="inlineStr">
         <is>
-          <t>MSR100726</t>
+          <t>MSR100443</t>
         </is>
       </c>
       <c r="B9" s="28" t="inlineStr">
@@ -5648,11 +5651,11 @@
       </c>
       <c r="C9" s="44" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>90+ DPD</t>
         </is>
       </c>
       <c r="D9" s="13" t="n">
-        <v>322836.07</v>
+        <v>326446.17</v>
       </c>
     </row>
   </sheetData>
